--- a/docs/TABLAS DE LIQUIDACION .xlsx
+++ b/docs/TABLAS DE LIQUIDACION .xlsx
@@ -1411,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4680,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J26"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
